--- a/results/Before 1st sem_cv_1.xlsx
+++ b/results/Before 1st sem_cv_1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Model</t>
   </si>
@@ -34,22 +34,7 @@
     <t>Logistic Regression</t>
   </si>
   <si>
-    <t>Lasso</t>
-  </si>
-  <si>
-    <t>Support Vector Classifier</t>
-  </si>
-  <si>
-    <t>CART</t>
-  </si>
-  <si>
-    <t>Random Forest</t>
-  </si>
-  <si>
     <t>LightGBM</t>
-  </si>
-  <si>
-    <t>XGBoost</t>
   </si>
 </sst>
 </file>
@@ -407,7 +392,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -435,16 +420,16 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>0.7550964187327824</v>
+        <v>0.7548209366391185</v>
       </c>
       <c r="C2">
-        <v>0.7599454433794658</v>
+        <v>0.7596885878811692</v>
       </c>
       <c r="D2">
-        <v>0.7550964187327824</v>
+        <v>0.7548209366391185</v>
       </c>
       <c r="E2">
-        <v>0.74424986522744</v>
+        <v>0.7439024601770136</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -452,101 +437,16 @@
         <v>6</v>
       </c>
       <c r="B3">
-        <v>0.7559228650137741</v>
+        <v>0.7870523415977961</v>
       </c>
       <c r="C3">
-        <v>0.7602541861389009</v>
+        <v>0.7862886492881731</v>
       </c>
       <c r="D3">
-        <v>0.7559228650137741</v>
+        <v>0.7870523415977961</v>
       </c>
       <c r="E3">
-        <v>0.7453880393946248</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4">
-        <v>0.6931129476584023</v>
-      </c>
-      <c r="C4">
-        <v>0.6875651966932025</v>
-      </c>
-      <c r="D4">
-        <v>0.6931129476584023</v>
-      </c>
-      <c r="E4">
-        <v>0.678637200684547</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5">
-        <v>0.7066115702479339</v>
-      </c>
-      <c r="C5">
-        <v>0.7087266309447214</v>
-      </c>
-      <c r="D5">
-        <v>0.7066115702479339</v>
-      </c>
-      <c r="E5">
-        <v>0.7067658463016365</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6">
-        <v>0.7707988980716254</v>
-      </c>
-      <c r="C6">
-        <v>0.7700895862367446</v>
-      </c>
-      <c r="D6">
-        <v>0.7707988980716254</v>
-      </c>
-      <c r="E6">
-        <v>0.7665632889456475</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7">
-        <v>0.7870523415977961</v>
-      </c>
-      <c r="C7">
-        <v>0.7862886492881731</v>
-      </c>
-      <c r="D7">
-        <v>0.7870523415977961</v>
-      </c>
-      <c r="E7">
         <v>0.7832676123203658</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8">
-        <v>0.7683195592286501</v>
-      </c>
-      <c r="C8">
-        <v>0.7665103861373757</v>
-      </c>
-      <c r="D8">
-        <v>0.7683195592286501</v>
-      </c>
-      <c r="E8">
-        <v>0.7650263335487172</v>
       </c>
     </row>
   </sheetData>
